--- a/btech.xlsx
+++ b/btech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diwakarranjan/Desktop/git_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8AC77-0138-8D42-9CF2-A84C114786E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1196B97-A80E-814B-86AF-44146EFD55BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{DC15F8C1-F418-6747-A837-5153AFE632E0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>heloo</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Kiit university</t>
+  </si>
+  <si>
+    <t>version 5</t>
   </si>
 </sst>
 </file>
@@ -390,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136DC84C-B3D5-E841-97BB-19D9D5CF5AEE}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,6 +411,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/btech.xlsx
+++ b/btech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diwakarranjan/Desktop/git_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1196B97-A80E-814B-86AF-44146EFD55BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7B21BB-8382-AC4D-A723-FC15BA40D853}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{DC15F8C1-F418-6747-A837-5153AFE632E0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Kiit university</t>
   </si>
   <si>
-    <t>version 5</t>
+    <t>version 6</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
